--- a/plantilla-para-analisis-comprension-de-textos-3-dimensiones-3-indicadores-18-preguntas-indices-0-1.xlsx
+++ b/plantilla-para-analisis-comprension-de-textos-3-dimensiones-3-indicadores-18-preguntas-indices-0-1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Datos/sucerman/Documents/github/seminario-analisis-informacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Documents\GitHub\seminario-analisis-informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pretest" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Comparación de Medias" sheetId="4" r:id="rId5"/>
     <sheet name="T-student" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>TOTAL PRUEBA</t>
   </si>
@@ -294,11 +294,23 @@
   <si>
     <t>% Indicador</t>
   </si>
+  <si>
+    <t>DIMENSIÓN-1</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-2</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-3</t>
+  </si>
+  <si>
+    <t>Total Prueba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -419,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -499,92 +511,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -677,6 +609,25 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,76 +649,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,9 +731,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -901,7 +783,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,7 +808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1029,7 +910,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1041,7 +922,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1084,17 +964,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.483333333333333</c:v>
+                  <c:v>0.48333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD89-4FB4-922D-B52ED3D1221F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1148,7 +1033,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1160,7 +1045,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1203,17 +1087,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD89-4FB4-922D-B52ED3D1221F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1264,7 +1153,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2084773632"/>
@@ -1321,7 +1210,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1347,7 +1235,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1379,7 +1267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2084745456"/>
@@ -1421,7 +1309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1459,7 +1347,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1471,9 +1359,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1540,7 +1428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1642,7 +1530,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1652,7 +1540,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1696,18 +1584,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-075E-4831-8285-A95B3D61C5A5}"/>
             </c:ext>
@@ -1762,7 +1650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2060070464"/>
@@ -1821,7 +1709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2060005328"/>
@@ -1862,7 +1750,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1874,9 +1762,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1938,7 +1826,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2040,7 +1928,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2050,7 +1938,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2094,18 +1982,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63FB-4A9E-B427-22DF6AB4ACBB}"/>
             </c:ext>
@@ -2160,7 +2048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2058649584"/>
@@ -2219,7 +2107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2055511648"/>
@@ -2260,7 +2148,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2272,9 +2160,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2341,7 +2229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2443,7 +2331,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2497,17 +2385,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24C1-493A-ABF6-6D86E13656F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2561,7 +2454,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2615,17 +2508,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-24C1-493A-ABF6-6D86E13656F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2676,7 +2574,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2060034592"/>
@@ -2758,7 +2656,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2790,7 +2688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2060038016"/>
@@ -2832,7 +2730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2870,7 +2768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2882,9 +2780,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2951,7 +2849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3050,7 +2948,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3107,14 +3005,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6AF-45AE-9F8A-12D4A5E9680E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3168,7 +3071,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3225,14 +3128,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6AF-45AE-9F8A-12D4A5E9680E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3283,7 +3191,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2061292288"/>
@@ -3365,7 +3273,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3397,7 +3305,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2057050112"/>
@@ -3439,7 +3347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3477,7 +3385,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3489,9 +3397,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3558,7 +3466,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3660,7 +3568,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3714,17 +3622,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8558-4832-87C1-07D066FEDC3C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3778,7 +3691,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3835,14 +3748,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8558-4832-87C1-07D066FEDC3C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3893,7 +3811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2059886368"/>
@@ -3975,7 +3893,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4007,7 +3925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2059894880"/>
@@ -4049,7 +3967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4087,7 +4005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4099,9 +4017,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4168,7 +4086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4270,7 +4188,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4324,17 +4242,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18EC-4BCE-A85D-8A8805DF72A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4388,7 +4311,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4442,17 +4365,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18EC-4BCE-A85D-8A8805DF72A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4503,7 +4431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085956976"/>
@@ -4585,7 +4513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4617,7 +4545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085960416"/>
@@ -4659,7 +4587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4697,7 +4625,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4709,9 +4637,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4778,7 +4706,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4845,94 +4773,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,100 +4872,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -5100,94 +5028,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,100 +5127,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -5364,7 +5292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2046362560"/>
@@ -5426,7 +5354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2046365824"/>
@@ -5468,7 +5396,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5498,7 +5426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5510,9 +5438,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5579,7 +5507,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5646,94 +5574,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5745,100 +5673,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -5901,94 +5829,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,100 +5928,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -6165,7 +6093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2107420352"/>
@@ -6227,7 +6155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2107417088"/>
@@ -6269,7 +6197,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6299,7 +6227,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6311,9 +6239,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6359,7 +6287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6385,7 +6312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6487,7 +6414,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6499,7 +6426,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6542,17 +6468,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.516666666666667</c:v>
+                  <c:v>0.51666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43F4-4F60-B405-C5A8D280A6D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6606,7 +6537,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6618,7 +6549,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6661,17 +6591,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43F4-4F60-B405-C5A8D280A6D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6722,7 +6657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2084697808"/>
@@ -6779,7 +6714,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6805,7 +6739,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6837,7 +6771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2084702960"/>
@@ -6879,7 +6813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6917,7 +6851,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6929,9 +6863,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6973,7 +6907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6999,7 +6932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7101,7 +7034,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7113,7 +7046,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7159,14 +7091,19 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.41666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A55-4695-B967-206F36686C5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7220,7 +7157,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7232,7 +7169,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7275,17 +7211,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A55-4695-B967-206F36686C5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7336,7 +7277,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085331696"/>
@@ -7393,7 +7334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7419,7 +7359,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7451,7 +7391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085335120"/>
@@ -7493,7 +7433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7531,7 +7471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7543,9 +7483,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7620,7 +7560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7692,11 +7632,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0DB3-4AFC-AFA6-41690D9924F4}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7707,11 +7647,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0DB3-4AFC-AFA6-41690D9924F4}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7722,11 +7662,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0DB3-4AFC-AFA6-41690D9924F4}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7755,7 +7695,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7764,7 +7704,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7808,18 +7748,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0DB3-4AFC-AFA6-41690D9924F4}"/>
             </c:ext>
@@ -7880,7 +7820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085477344"/>
@@ -7939,7 +7879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2085454544"/>
@@ -7980,7 +7920,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7992,9 +7932,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8061,7 +8001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8151,7 +8091,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8161,7 +8101,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8205,18 +8145,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B54E-48F3-B911-4872FEDC1494}"/>
             </c:ext>
@@ -8277,7 +8217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056928080"/>
@@ -8336,7 +8276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056931312"/>
@@ -8377,7 +8317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8389,9 +8329,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8462,7 +8402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8552,7 +8492,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8562,7 +8502,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8609,15 +8549,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2BFE-4470-9C6B-2D4CB1998835}"/>
             </c:ext>
@@ -8678,7 +8618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056840240"/>
@@ -8737,7 +8677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056856752"/>
@@ -8778,7 +8718,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8790,9 +8730,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8867,7 +8807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8957,7 +8897,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8967,7 +8907,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9014,15 +8954,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E1B-49D9-A5AB-7E7CA6521BB1}"/>
             </c:ext>
@@ -9083,7 +9023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056760016"/>
@@ -9142,7 +9082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056763712"/>
@@ -9183,7 +9123,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9195,9 +9135,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9264,7 +9204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9354,7 +9294,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9364,7 +9304,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9408,18 +9348,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA2B-4A83-B11C-8EDE93B90F80}"/>
             </c:ext>
@@ -9480,7 +9420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056652624"/>
@@ -9539,7 +9479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056658848"/>
@@ -9580,7 +9520,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9592,9 +9532,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9669,7 +9609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9759,7 +9699,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9769,7 +9709,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9816,15 +9756,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F1E-4E11-B5BE-1C22936318BB}"/>
             </c:ext>
@@ -9885,7 +9825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056474704"/>
@@ -9944,7 +9884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056477936"/>
@@ -9985,7 +9925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19189,7 +19129,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19219,7 +19165,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19249,7 +19201,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19287,7 +19245,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19323,7 +19281,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19359,7 +19317,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19395,7 +19353,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19431,7 +19389,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19467,7 +19425,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19503,7 +19461,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C60FEBB-1128-40F0-80C3-0A870DCF4D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19539,7 +19497,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811EC65F-EA02-4407-B17A-A26F938CD13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19572,7 +19530,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19602,7 +19566,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19632,7 +19602,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19662,7 +19638,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19684,15 +19666,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19700,7 +19682,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19725,23 +19707,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20024,138 +20006,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="32" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="32" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.625" style="32" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" style="32" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="32"/>
+    <col min="28" max="28" width="10.875" style="32"/>
     <col min="29" max="29" width="13.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.875" style="32" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.5" style="32" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="32"/>
+    <col min="33" max="33" width="5.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="85" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="56" t="s">
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="59" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="59" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="60"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="61" t="s">
+      <c r="S2" s="71"/>
+      <c r="T2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="61" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="62"/>
+      <c r="W2" s="71"/>
       <c r="X2" s="35"/>
       <c r="Y2" s="35"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
@@ -20231,8 +20213,8 @@
       <c r="Y3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
       <c r="AC3" s="31" t="s">
         <v>11</v>
       </c>
@@ -20249,7 +20231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -20276,7 +20258,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="38" t="str">
-        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;4),"medio",IF(AND(H4&gt;=4,H4&lt;=6),"alto")))</f>
+        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;=4),"medio",IF(AND(H4&gt;4,H4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="J4" s="37">
@@ -20302,7 +20284,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="39" t="str">
-        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;4),"medio",IF(AND(P4&gt;=4,P4&lt;=6),"alto")))</f>
+        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;=4),"medio",IF(AND(P4&gt;4,P4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="R4" s="37">
@@ -20328,7 +20310,7 @@
         <v>6</v>
       </c>
       <c r="Y4" s="40" t="str">
-        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;4),"medio",IF(AND(X4&gt;=4,X4&lt;=6),"alto")))</f>
+        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;=4),"medio",IF(AND(X4&gt;4,X4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Z4" s="41">
@@ -20336,7 +20318,7 @@
         <v>18</v>
       </c>
       <c r="AA4" s="41" t="str">
-        <f>IF(AND(Z4&gt;=0,Z4&lt;6),"bajo",IF(AND(Z4&gt;=6,Z4&lt;12),"medio",IF(AND(Z4&gt;=12,Z4&lt;=18),"alto")))</f>
+        <f>IF(AND(Z4&gt;=0,Z4&lt;6),"bajo",IF(AND(Z4&gt;=6,Z4&lt;=12),"medio",IF(AND(Z4&gt;12,Z4&lt;=18),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AC4" s="38" t="s">
@@ -20348,18 +20330,18 @@
       </c>
       <c r="AE4" s="38">
         <f>COUNTIF(I4:I33,"medio")</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AF4" s="38">
         <f>COUNTIF(I4:I33,"alto")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="38">
         <f>SUM(AD4:AF4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>2</v>
       </c>
@@ -20386,7 +20368,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="38" t="str">
-        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;4),"medio",IF(AND(H5&gt;=4,H5&lt;=6),"alto")))</f>
+        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;=4),"medio",IF(AND(H5&gt;4,H5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="J5" s="37">
@@ -20412,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="39" t="str">
-        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;4),"medio",IF(AND(P5&gt;=4,P5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;=4),"medio",IF(AND(P5&gt;4,P5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="R5" s="37">
@@ -20438,7 +20420,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="40" t="str">
-        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;4),"medio",IF(AND(X5&gt;=4,X5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;=4),"medio",IF(AND(X5&gt;4,X5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="Z5" s="41">
@@ -20446,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="41" t="str">
-        <f t="shared" ref="AA5:AA33" si="7">IF(AND(Z5&gt;=0,Z5&lt;6),"bajo",IF(AND(Z5&gt;=6,Z5&lt;12),"medio",IF(AND(Z5&gt;=12,Z5&lt;=18),"alto")))</f>
+        <f t="shared" ref="AA5:AA33" si="7">IF(AND(Z5&gt;=0,Z5&lt;6),"bajo",IF(AND(Z5&gt;=6,Z5&lt;=12),"medio",IF(AND(Z5&gt;12,Z5&lt;=18),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="AC5" s="39" t="s">
@@ -20458,18 +20440,18 @@
       </c>
       <c r="AE5" s="39">
         <f>COUNTIF(Q4:Q33,"medio")</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AF5" s="39">
         <f>COUNTIF(Q4:Q33,"alto")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG5" s="39">
         <f>SUM(AG4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>3</v>
       </c>
@@ -20568,18 +20550,18 @@
       </c>
       <c r="AE6" s="40">
         <f>COUNTIF(Y4:Y33,"medio")</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF6" s="40">
         <f>COUNTIF(Y4:Y33,"alto")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="40">
         <f>SUM(AD6:AF6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>4</v>
       </c>
@@ -20633,7 +20615,7 @@
       </c>
       <c r="Q7" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R7" s="37">
         <v>0</v>
@@ -20678,18 +20660,18 @@
       </c>
       <c r="AE7" s="41">
         <f>COUNTIF(AA4:AA33,"medio")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF7" s="41">
         <f>COUNTIF(AA4:AA33,"alto")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="41">
         <f>SUM(AD7:AF7)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>5</v>
       </c>
@@ -20769,7 +20751,7 @@
       </c>
       <c r="Y8" s="40" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z8" s="41">
         <f t="shared" si="6"/>
@@ -20780,7 +20762,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>6</v>
       </c>
@@ -20871,7 +20853,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>7</v>
       </c>
@@ -20962,7 +20944,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>8</v>
       </c>
@@ -20990,7 +20972,7 @@
       </c>
       <c r="I11" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J11" s="37">
         <v>1</v>
@@ -21053,7 +21035,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>9</v>
       </c>
@@ -21107,7 +21089,7 @@
       </c>
       <c r="Q12" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R12" s="37">
         <v>0</v>
@@ -21144,7 +21126,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -21235,7 +21217,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>11</v>
       </c>
@@ -21289,7 +21271,7 @@
       </c>
       <c r="Q14" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R14" s="37">
         <v>1</v>
@@ -21326,7 +21308,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -21406,7 +21388,7 @@
       </c>
       <c r="Y15" s="40" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z15" s="41">
         <f t="shared" si="6"/>
@@ -21414,10 +21396,10 @@
       </c>
       <c r="AA15" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>13</v>
       </c>
@@ -21508,7 +21490,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>14</v>
       </c>
@@ -21588,7 +21570,7 @@
       </c>
       <c r="Y17" s="40" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z17" s="41">
         <f t="shared" si="6"/>
@@ -21599,7 +21581,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>15</v>
       </c>
@@ -21653,7 +21635,7 @@
       </c>
       <c r="Q18" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R18" s="37">
         <v>1</v>
@@ -21690,7 +21672,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>16</v>
       </c>
@@ -21718,7 +21700,7 @@
       </c>
       <c r="I19" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J19" s="37">
         <v>0</v>
@@ -21744,7 +21726,7 @@
       </c>
       <c r="Q19" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R19" s="37">
         <v>0</v>
@@ -21781,7 +21763,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>17</v>
       </c>
@@ -21835,7 +21817,7 @@
       </c>
       <c r="Q20" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R20" s="37">
         <v>0</v>
@@ -21872,7 +21854,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -21963,7 +21945,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>19</v>
       </c>
@@ -22054,7 +22036,7 @@
         <v>bajo</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>20</v>
       </c>
@@ -22082,7 +22064,7 @@
       </c>
       <c r="I23" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J23" s="37">
         <v>0</v>
@@ -22145,7 +22127,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>21</v>
       </c>
@@ -22236,7 +22218,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>22</v>
       </c>
@@ -22327,7 +22309,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>23</v>
       </c>
@@ -22355,7 +22337,7 @@
       </c>
       <c r="I26" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J26" s="37">
         <v>0</v>
@@ -22418,7 +22400,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>24</v>
       </c>
@@ -22509,7 +22491,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>25</v>
       </c>
@@ -22537,7 +22519,7 @@
       </c>
       <c r="I28" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J28" s="37">
         <v>1</v>
@@ -22600,7 +22582,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>26</v>
       </c>
@@ -22691,7 +22673,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>27</v>
       </c>
@@ -22782,7 +22764,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>28</v>
       </c>
@@ -22862,7 +22844,7 @@
       </c>
       <c r="Y31" s="40" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z31" s="41">
         <f t="shared" si="6"/>
@@ -22873,7 +22855,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>29</v>
       </c>
@@ -22964,7 +22946,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>30</v>
       </c>
@@ -23018,7 +23000,7 @@
       </c>
       <c r="Q33" s="39" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R33" s="37">
         <v>0</v>
@@ -23055,7 +23037,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>3</v>
       </c>
@@ -23083,8 +23065,11 @@
         <f>SUM(G4:G33)</f>
         <v>17</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="43">
+        <f>SUM(H4:H33)</f>
+        <v>92</v>
+      </c>
+      <c r="I34" s="56"/>
       <c r="J34" s="44">
         <f t="shared" ref="J34:O34" si="9">SUM(J4:J33)</f>
         <v>16</v>
@@ -23109,8 +23094,11 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="70"/>
+      <c r="P34" s="44">
+        <f>SUM(P4:P33)</f>
+        <v>91</v>
+      </c>
+      <c r="Q34" s="57"/>
       <c r="R34" s="45">
         <f>SUM(R4:R33)</f>
         <v>10</v>
@@ -23135,21 +23123,27 @@
         <f>SUM(W4:W33)</f>
         <v>11</v>
       </c>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="64"/>
+      <c r="X34" s="45">
+        <f>SUM(X4:X33)</f>
+        <v>72</v>
+      </c>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58">
+        <f>SUM(Z4:Z33)</f>
+        <v>255</v>
+      </c>
+      <c r="AA34" s="56"/>
     </row>
-    <row r="35" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="51">
-        <f>B34/$A$33</f>
+        <f t="shared" ref="B35:G35" si="11">B34/30</f>
         <v>0.6</v>
       </c>
       <c r="C35" s="51">
-        <f t="shared" ref="C35:G35" si="11">C34/$A$33</f>
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D35" s="51">
@@ -23168,10 +23162,13 @@
         <f t="shared" si="11"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="H35" s="51">
+        <f>H34/(30*6)</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="I35" s="56"/>
       <c r="J35" s="53">
-        <f t="shared" ref="J35:O35" si="12">J34/$A$33</f>
+        <f t="shared" ref="J35:O35" si="12">J34/30</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="K35" s="53">
@@ -23194,10 +23191,13 @@
         <f t="shared" si="12"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="72"/>
+      <c r="P35" s="53">
+        <f>P34/(30*6)</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="Q35" s="57"/>
       <c r="R35" s="54">
-        <f t="shared" ref="R35:W35" si="13">R34/$A$33</f>
+        <f t="shared" ref="R35:W35" si="13">R34/30</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="S35" s="54">
@@ -23220,75 +23220,88 @@
         <f t="shared" si="13"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="66"/>
+      <c r="X35" s="54">
+        <f>X34/(30*6)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="59">
+        <f>Z34/(30*18)</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AA35" s="56"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="64">
         <f>(B35+C35)/2</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="79">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64">
         <f>(D35+E35)/2</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="79">
+      <c r="E36" s="64"/>
+      <c r="F36" s="64">
         <f>(F35+G35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="81">
+      <c r="G36" s="64"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="60">
         <f>(J35+K35)/2</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="K36" s="82"/>
-      <c r="L36" s="81">
+      <c r="K36" s="60"/>
+      <c r="L36" s="60">
         <f>(L35+M35)/2</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M36" s="82"/>
-      <c r="N36" s="81">
+      <c r="M36" s="60"/>
+      <c r="N36" s="60">
         <f>(N35+O35)/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="O36" s="82"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="83">
+      <c r="O36" s="60"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="61">
         <f>(R35+S35)/2</f>
         <v>0.35</v>
       </c>
-      <c r="S36" s="84"/>
-      <c r="T36" s="83">
+      <c r="S36" s="61"/>
+      <c r="T36" s="61">
         <f>(T35+U35)/2</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="U36" s="84"/>
-      <c r="V36" s="83">
+      <c r="U36" s="61"/>
+      <c r="V36" s="61">
         <f>(V35+W35)/2</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="W36" s="84"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="68"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="P34:Q36"/>
-    <mergeCell ref="X34:Y36"/>
-    <mergeCell ref="Z34:AA36"/>
+  <mergeCells count="23">
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
@@ -23301,155 +23314,145 @@
     <mergeCell ref="V36:W36"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:E36"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="21"/>
-    <col min="27" max="27" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="21"/>
-    <col min="29" max="29" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="21"/>
+    <col min="27" max="27" width="9.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="21"/>
+    <col min="29" max="29" width="13.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.375" style="21" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="21"/>
+    <col min="33" max="33" width="5.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="87" t="s">
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="92"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="93" t="s">
+      <c r="K2" s="80"/>
+      <c r="L2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="93" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="94"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="95" t="s">
+      <c r="S2" s="82"/>
+      <c r="T2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="96"/>
-      <c r="V2" s="95" t="s">
+      <c r="U2" s="82"/>
+      <c r="V2" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="96"/>
+      <c r="W2" s="82"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -23525,8 +23528,8 @@
       <c r="Y3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
       <c r="AC3" s="20" t="s">
         <v>76</v>
       </c>
@@ -23543,7 +23546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -23570,7 +23573,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="27" t="str">
-        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;4),"medio",IF(AND(H4&gt;=4,H4&lt;=6),"alto")))</f>
+        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;=4),"medio",IF(AND(H4&gt;4,H4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="J4" s="1">
@@ -23596,7 +23599,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="28" t="str">
-        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;4),"medio",IF(AND(P4&gt;=4,P4&lt;=6),"alto")))</f>
+        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;=4),"medio",IF(AND(P4&gt;4,P4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="R4" s="26">
@@ -23622,7 +23625,7 @@
         <v>6</v>
       </c>
       <c r="Y4" s="29" t="str">
-        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;4),"medio",IF(AND(X4&gt;=4,X4&lt;=6),"alto")))</f>
+        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;=4),"medio",IF(AND(X4&gt;4,X4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Z4" s="30">
@@ -23630,7 +23633,7 @@
         <v>18</v>
       </c>
       <c r="AA4" s="30" t="str">
-        <f>IF(AND(Z4&gt;=0,Z4&lt;6),"bajo",IF(AND(Z4&gt;=6,Z4&lt;12),"medio",IF(AND(Z4&gt;=12,Z4&lt;=18),"alto")))</f>
+        <f>IF(AND(Z4&gt;=0,Z4&lt;6),"bajo",IF(AND(Z4&gt;=6,Z4&lt;=12),"medio",IF(AND(Z4&gt;12,Z4&lt;=18),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AC4" s="27" t="s">
@@ -23642,18 +23645,18 @@
       </c>
       <c r="AE4" s="27">
         <f>COUNTIF(I4:I33,"medio")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="27">
         <f>COUNTIF(I4:I33,"alto")</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="27">
         <f>SUM(AD4:AF4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -23680,7 +23683,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="27" t="str">
-        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;4),"medio",IF(AND(H5&gt;=4,H5&lt;=6),"alto")))</f>
+        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;=4),"medio",IF(AND(H5&gt;4,H5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="J5" s="1">
@@ -23706,7 +23709,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="28" t="str">
-        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;4),"medio",IF(AND(P5&gt;=4,P5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;=4),"medio",IF(AND(P5&gt;4,P5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="R5" s="26">
@@ -23732,7 +23735,7 @@
         <v>3</v>
       </c>
       <c r="Y5" s="29" t="str">
-        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;4),"medio",IF(AND(X5&gt;=4,X5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;=4),"medio",IF(AND(X5&gt;4,X5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Z5" s="30">
@@ -23740,7 +23743,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="30" t="str">
-        <f t="shared" ref="AA5:AA33" si="7">IF(AND(Z5&gt;=0,Z5&lt;6),"bajo",IF(AND(Z5&gt;=6,Z5&lt;12),"medio",IF(AND(Z5&gt;=12,Z5&lt;=18),"alto")))</f>
+        <f t="shared" ref="AA5:AA33" si="7">IF(AND(Z5&gt;=0,Z5&lt;6),"bajo",IF(AND(Z5&gt;=6,Z5&lt;=12),"medio",IF(AND(Z5&gt;12,Z5&lt;=18),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="AC5" s="28" t="s">
@@ -23752,18 +23755,18 @@
       </c>
       <c r="AE5" s="28">
         <f>COUNTIF(Q4:Q33,"medio")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF5" s="28">
         <f>COUNTIF(Q4:Q33,"alto")</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="28">
         <f>SUM(AG4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>3</v>
       </c>
@@ -23862,18 +23865,18 @@
       </c>
       <c r="AE6" s="29">
         <f>COUNTIF(Y4:Y33,"medio")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AF6" s="29">
         <f>COUNTIF(Y4:Y33,"alto")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AG6" s="29">
         <f>SUM(AD6:AF6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>4</v>
       </c>
@@ -23972,18 +23975,18 @@
       </c>
       <c r="AE7" s="30">
         <f>COUNTIF(AA4:AA33,"medio")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF7" s="30">
         <f>COUNTIF(AA4:AA33,"alto")</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG7" s="30">
         <f>SUM(AD7:AF7)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -24011,7 +24014,7 @@
       </c>
       <c r="I8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -24037,7 +24040,7 @@
       </c>
       <c r="Q8" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R8" s="26">
         <v>1</v>
@@ -24074,7 +24077,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -24154,7 +24157,7 @@
       </c>
       <c r="Y9" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z9" s="30">
         <f t="shared" si="6"/>
@@ -24165,7 +24168,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -24256,7 +24259,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -24284,7 +24287,7 @@
       </c>
       <c r="I11" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -24336,7 +24339,7 @@
       </c>
       <c r="Y11" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z11" s="30">
         <f t="shared" si="6"/>
@@ -24347,7 +24350,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>9</v>
       </c>
@@ -24438,7 +24441,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>10</v>
       </c>
@@ -24529,7 +24532,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>11</v>
       </c>
@@ -24583,7 +24586,7 @@
       </c>
       <c r="Q14" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R14" s="26">
         <v>1</v>
@@ -24617,10 +24620,10 @@
       </c>
       <c r="AA14" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -24674,7 +24677,7 @@
       </c>
       <c r="Q15" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R15" s="26">
         <v>1</v>
@@ -24700,7 +24703,7 @@
       </c>
       <c r="Y15" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z15" s="30">
         <f t="shared" si="6"/>
@@ -24711,7 +24714,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>13</v>
       </c>
@@ -24739,7 +24742,7 @@
       </c>
       <c r="I16" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -24791,7 +24794,7 @@
       </c>
       <c r="Y16" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z16" s="30">
         <f t="shared" si="6"/>
@@ -24802,7 +24805,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -24830,7 +24833,7 @@
       </c>
       <c r="I17" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -24893,7 +24896,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -24973,7 +24976,7 @@
       </c>
       <c r="Y18" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z18" s="30">
         <f t="shared" si="6"/>
@@ -24981,10 +24984,10 @@
       </c>
       <c r="AA18" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -25064,7 +25067,7 @@
       </c>
       <c r="Y19" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z19" s="30">
         <f t="shared" si="6"/>
@@ -25075,7 +25078,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -25166,7 +25169,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -25257,7 +25260,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -25348,7 +25351,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>20</v>
       </c>
@@ -25428,7 +25431,7 @@
       </c>
       <c r="Y23" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z23" s="30">
         <f t="shared" si="6"/>
@@ -25439,7 +25442,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>21</v>
       </c>
@@ -25530,7 +25533,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -25558,7 +25561,7 @@
       </c>
       <c r="I25" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -25610,7 +25613,7 @@
       </c>
       <c r="Y25" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z25" s="30">
         <f t="shared" si="6"/>
@@ -25621,7 +25624,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -25701,7 +25704,7 @@
       </c>
       <c r="Y26" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z26" s="30">
         <f t="shared" si="6"/>
@@ -25712,7 +25715,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -25792,7 +25795,7 @@
       </c>
       <c r="Y27" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z27" s="30">
         <f t="shared" si="6"/>
@@ -25803,7 +25806,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -25894,7 +25897,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -25922,7 +25925,7 @@
       </c>
       <c r="I29" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -25948,7 +25951,7 @@
       </c>
       <c r="Q29" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R29" s="26">
         <v>0</v>
@@ -25974,7 +25977,7 @@
       </c>
       <c r="Y29" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z29" s="30">
         <f t="shared" si="6"/>
@@ -25982,10 +25985,10 @@
       </c>
       <c r="AA29" s="30" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>27</v>
       </c>
@@ -26013,7 +26016,7 @@
       </c>
       <c r="I30" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -26039,7 +26042,7 @@
       </c>
       <c r="Q30" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R30" s="26">
         <v>1</v>
@@ -26076,7 +26079,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>28</v>
       </c>
@@ -26156,7 +26159,7 @@
       </c>
       <c r="Y31" s="29" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z31" s="30">
         <f t="shared" si="6"/>
@@ -26167,7 +26170,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -26258,7 +26261,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>30</v>
       </c>
@@ -26349,7 +26352,7 @@
         <v>bajo</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>3</v>
       </c>
@@ -26377,8 +26380,11 @@
         <f>SUM(G4:G33)</f>
         <v>18</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="H34" s="43">
+        <f>SUM(H4:H33)</f>
+        <v>116</v>
+      </c>
+      <c r="I34" s="56"/>
       <c r="J34" s="44">
         <f t="shared" ref="J34:O34" si="9">SUM(J4:J33)</f>
         <v>16</v>
@@ -26403,8 +26409,11 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="70"/>
+      <c r="P34" s="44">
+        <f>SUM(P4:P33)</f>
+        <v>105</v>
+      </c>
+      <c r="Q34" s="57"/>
       <c r="R34" s="45">
         <f>SUM(R4:R33)</f>
         <v>19</v>
@@ -26429,21 +26438,27 @@
         <f>SUM(W4:W33)</f>
         <v>14</v>
       </c>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="64"/>
+      <c r="X34" s="45">
+        <f>SUM(X4:X33)</f>
+        <v>111</v>
+      </c>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58">
+        <f>SUM(Z4:Z33)</f>
+        <v>332</v>
+      </c>
+      <c r="AA34" s="56"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="51">
-        <f>B34/$A$33</f>
+        <f t="shared" ref="B35:G35" si="11">B34/30</f>
         <v>0.7</v>
       </c>
       <c r="C35" s="51">
-        <f t="shared" ref="C35:G35" si="11">C34/$A$33</f>
+        <f t="shared" si="11"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="D35" s="51">
@@ -26462,10 +26477,13 @@
         <f t="shared" si="11"/>
         <v>0.6</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="H35" s="51">
+        <f>H34/(30*6)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="I35" s="56"/>
       <c r="J35" s="53">
-        <f t="shared" ref="J35:O35" si="12">J34/$A$33</f>
+        <f t="shared" ref="J35:O35" si="12">J34/30</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="K35" s="53">
@@ -26488,10 +26506,13 @@
         <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="72"/>
+      <c r="P35" s="53">
+        <f>P34/(30*6)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q35" s="57"/>
       <c r="R35" s="54">
-        <f t="shared" ref="R35:W35" si="13">R34/$A$33</f>
+        <f t="shared" ref="R35:W35" si="13">R34/30</f>
         <v>0.6333333333333333</v>
       </c>
       <c r="S35" s="54">
@@ -26514,84 +26535,77 @@
         <f t="shared" si="13"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="66"/>
+      <c r="X35" s="54">
+        <f>X34/(30*6)</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="59">
+        <f>Z34/(30*18)</f>
+        <v>0.61481481481481481</v>
+      </c>
+      <c r="AA35" s="56"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="64">
         <f>(B35+C35)/2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="79">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64">
         <f>(D35+E35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="79">
+      <c r="E36" s="64"/>
+      <c r="F36" s="64">
         <f>(F35+G35)/2</f>
         <v>0.68333333333333335</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="81">
+      <c r="G36" s="64"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="60">
         <f>(J35+K35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="K36" s="82"/>
-      <c r="L36" s="81">
+      <c r="K36" s="60"/>
+      <c r="L36" s="60">
         <f>(L35+M35)/2</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="M36" s="82"/>
-      <c r="N36" s="81">
+      <c r="M36" s="60"/>
+      <c r="N36" s="60">
         <f>(N35+O35)/2</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="O36" s="82"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="83">
+      <c r="O36" s="60"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="61">
         <f>(R35+S35)/2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S36" s="84"/>
-      <c r="T36" s="83">
+      <c r="S36" s="61"/>
+      <c r="T36" s="61">
         <f>(T35+U35)/2</f>
         <v>0.6</v>
       </c>
-      <c r="U36" s="84"/>
-      <c r="V36" s="83">
+      <c r="U36" s="61"/>
+      <c r="V36" s="61">
         <f>(V35+W35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="W36" s="84"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="68"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="P34:Q36"/>
-    <mergeCell ref="X34:Y36"/>
-    <mergeCell ref="Z34:AA36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
+  <mergeCells count="23">
     <mergeCell ref="Z1:Z3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="B1:I1"/>
@@ -26606,32 +26620,41 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="97" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="46"/>
       <c r="C3" s="46" t="s">
         <v>14</v>
@@ -26640,7 +26663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
         <v>47</v>
       </c>
@@ -26653,7 +26676,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
         <v>48</v>
       </c>
@@ -26666,7 +26689,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>49</v>
       </c>
@@ -26679,14 +26702,14 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="47"/>
       <c r="C18" s="47" t="s">
         <v>14</v>
@@ -26695,7 +26718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>50</v>
       </c>
@@ -26708,7 +26731,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
         <v>51</v>
       </c>
@@ -26721,7 +26744,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
         <v>52</v>
       </c>
@@ -26734,14 +26757,14 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="101" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="49"/>
       <c r="C35" s="49" t="s">
         <v>14</v>
@@ -26750,7 +26773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="50" t="s">
         <v>53</v>
       </c>
@@ -26763,7 +26786,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="50" t="s">
         <v>54</v>
       </c>
@@ -26776,7 +26799,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="50" t="s">
         <v>55</v>
       </c>
@@ -26801,30 +26824,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
       <c r="V2" s="1"/>
       <c r="W2" s="4" t="s">
         <v>5</v>
@@ -26836,7 +26860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -26865,14 +26889,14 @@
       </c>
       <c r="X3" s="10">
         <f>'Comparación Dimensiones'!$B$5</f>
-        <v>0.53333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="Y3" s="10">
         <f>'Comparación Dimensiones'!$B$6</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -26889,7 +26913,7 @@
       </c>
       <c r="F4" s="18">
         <f>G4/$G$7</f>
-        <v>0.16</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="G4" s="1">
         <f>Postest!AD4</f>
@@ -26900,39 +26924,39 @@
       </c>
       <c r="W4" s="10">
         <f>'Comparación Dimensiones'!$F$4</f>
-        <v>0.16</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="X4" s="10">
         <f>'Comparación Dimensiones'!$F$5</f>
-        <v>0.28000000000000003</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="Y4" s="10">
         <f>'Comparación Dimensiones'!$F$6</f>
-        <v>0.56000000000000005</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="18">
         <f>C5/$C$7</f>
-        <v>0.53333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C5" s="1">
         <f>Pretest!AE4</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="18">
         <f>G5/$G$7</f>
-        <v>0.28000000000000003</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="G5" s="1">
         <f>Postest!AE4</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>79</v>
@@ -26943,35 +26967,35 @@
       </c>
       <c r="X5" s="10">
         <f>'Comparación Dimensiones'!$B$16</f>
-        <v>0.56666666666666665</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" s="10">
         <f>'Comparación Dimensiones'!$B$17</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="18">
         <f>C6/$C$7</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C6" s="1">
         <f>Pretest!AF4</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="18">
         <f>G6/$G$7</f>
-        <v>0.56000000000000005</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="1">
         <f>Postest!AF5</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>80</v>
@@ -26982,20 +27006,20 @@
       </c>
       <c r="X6" s="10">
         <f>'Comparación Dimensiones'!$F$16</f>
-        <v>0.43333333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="Y6" s="10">
         <f>'Comparación Dimensiones'!$F$17</f>
-        <v>0.46666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10">
         <f>SUM(B4:B6)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
@@ -27010,7 +27034,7 @@
       </c>
       <c r="G7" s="1">
         <f>SUM(G4:G6)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>81</v>
@@ -27021,14 +27045,14 @@
       </c>
       <c r="X7" s="10">
         <f>'Comparación Dimensiones'!$B$27</f>
-        <v>0.56666666666666665</v>
+        <v>0.7</v>
       </c>
       <c r="Y7" s="10">
         <f>'Comparación Dimensiones'!$B$28</f>
-        <v>0.2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V8" s="2" t="s">
         <v>82</v>
       </c>
@@ -27038,14 +27062,14 @@
       </c>
       <c r="X8" s="10">
         <f>'Comparación Dimensiones'!$F$27</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y8" s="10">
         <f>'Comparación Dimensiones'!$F$28</f>
-        <v>0.6333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V9" s="5" t="s">
         <v>83</v>
       </c>
@@ -27055,14 +27079,14 @@
       </c>
       <c r="X9" s="10">
         <f>B40</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Y9" s="10">
         <f>B41</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="19"/>
       <c r="V10" s="5" t="s">
         <v>84</v>
@@ -27073,23 +27097,23 @@
       </c>
       <c r="X10" s="10">
         <f>F40</f>
-        <v>0.43333333333333335</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="Y10" s="10">
         <f>F41</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -27142,22 +27166,22 @@
       </c>
       <c r="B16" s="18">
         <f>C16/$C$18</f>
-        <v>0.56666666666666665</v>
+        <v>0.8</v>
       </c>
       <c r="C16" s="1">
         <f>Pretest!$AE$5</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="18">
         <f>G16/$G$18</f>
-        <v>0.43333333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="1">
         <f>Postest!AE5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -27166,22 +27190,22 @@
       </c>
       <c r="B17" s="18">
         <f>C17/$C$18</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="1">
         <f>Pretest!$AF$5</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="18">
         <f>G17/$G$18</f>
-        <v>0.46666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="G17" s="1">
         <f>Postest!AF5</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -27208,16 +27232,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27270,22 +27294,22 @@
       </c>
       <c r="B27" s="9">
         <f>C27/$C$29</f>
-        <v>0.56666666666666665</v>
+        <v>0.7</v>
       </c>
       <c r="C27" s="1">
         <f>Pretest!$AE$6</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="18">
         <f>G27/$G$29</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G27" s="1">
         <f>Postest!AE6</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -27294,22 +27318,22 @@
       </c>
       <c r="B28" s="9">
         <f>C28/$C$29</f>
-        <v>0.2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C28" s="1">
         <f>Pretest!$AF$6</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="18">
         <f>G28/$G$29</f>
-        <v>0.6333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="G28" s="1">
         <f>Postest!AF6</f>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -27336,18 +27360,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="104" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="92"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>15</v>
       </c>
@@ -27368,7 +27392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -27392,55 +27416,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="9">
         <f>C40/$C$29</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C40" s="1">
         <f>Pretest!AE7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="18">
         <f>G40/$G$29</f>
-        <v>0.43333333333333335</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G40" s="1">
         <f>Postest!AE7</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="9">
         <f>C41/$C$29</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C41" s="1">
         <f>Pretest!AF7</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="18">
         <f>G41/$G$29</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G41" s="1">
         <f>Postest!AF7</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -27462,6 +27486,76 @@
       <c r="G42" s="1">
         <f>SUM(G39:G41)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="10">
+        <f>Pretest!H35</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="C51" s="10">
+        <f>Postest!H35</f>
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="10">
+        <f>Pretest!P35</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C52" s="10">
+        <f>Postest!P35</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="10">
+        <f>Pretest!X35</f>
+        <v>0.4</v>
+      </c>
+      <c r="C53" s="10">
+        <f>Postest!X35</f>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="10">
+        <f>Pretest!Z35</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="C63" s="10">
+        <f>Postest!Z35</f>
+        <v>0.61481481481481481</v>
       </c>
     </row>
   </sheetData>
@@ -27477,30 +27571,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -27519,7 +27613,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27536,7 +27630,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27561,7 +27655,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27586,7 +27680,7 @@
         <v>0.68829847397188892</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27611,7 +27705,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27636,7 +27730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27661,7 +27755,7 @@
         <v>3.76996600490786</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27686,7 +27780,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27711,7 +27805,7 @@
         <v>-0.17255398801539856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27736,7 +27830,7 @@
         <v>0.10151408213518009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27761,7 +27855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27786,7 +27880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27811,7 +27905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -27836,7 +27930,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -27861,7 +27955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -27874,7 +27968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27887,7 +27981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -27900,7 +27994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -27913,7 +28007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -27926,7 +28020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -27939,7 +28033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -27952,7 +28046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -27965,7 +28059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -27978,7 +28072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -27991,7 +28085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28004,7 +28098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28017,7 +28111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28030,7 +28124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -28043,7 +28137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -28056,7 +28150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -28080,24 +28174,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -28111,7 +28205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -28124,7 +28218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -28144,7 +28238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -28166,7 +28260,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28188,7 +28282,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -28210,7 +28304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -28230,7 +28324,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28250,7 +28344,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28270,7 +28364,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28290,7 +28384,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -28310,7 +28404,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -28330,7 +28424,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -28350,7 +28444,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -28370,7 +28464,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -28383,7 +28477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -28396,7 +28490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -28409,7 +28503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -28425,7 +28519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -28442,7 +28536,7 @@
         <v>Hay un cambio significativo</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -28455,7 +28549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -28468,7 +28562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -28481,7 +28575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -28494,7 +28588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -28507,7 +28601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -28520,7 +28614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28533,7 +28627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28546,7 +28640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28559,7 +28653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -28572,7 +28666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -28585,7 +28679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
